--- a/answer.xlsx
+++ b/answer.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>United buildings are buildings that are deemed united when two or more buildings adjoining each other are connected and used as one building. In order to be considered a united building, the buildings must be connected through openings in the walls dividing them and together comply with all the requirements of the NCC as though they are a single building. United buildings are typically applicable to Class 2 to 9 buildings.</t>
+          <t>United buildings are buildings that are deemed as one when two or more buildings that are adjoining each other are connected and used as a single building. In order for buildings to be considered united, they must be connected through openings in the walls dividing them and together comply with all the requirements of the NCC as though they are a single building. This concept applies to Class 2 to 9 buildings. If alterations or any other building work cause two or more of the united buildings to no longer be connected through openings in the dividing walls, each of those buildings must then comply with all the requirements for a single building.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Class 2 buildings are buildings that contain two or more sole-occupancy units, each of which is a separate dwelling. These buildings are generally solely occupied by one or more people to the exclusion of others. On the other hand, Class 4 buildings are buildings that are used for residential purposes and are not classified as Class 1, Class 2, or Class 3 buildings. It is important to note that a building can only contain one Class 4 dwelling.</t>
+          <t>Class 2 buildings are buildings that contain two or more sole-occupancy units, each of which is a separate dwelling. These buildings are generally solely occupied by one or more people to the exclusion of others. On the other hand, Class 4 buildings are buildings that are specifically designed and constructed to be used as a residence or sleeping accommodation for a large number of unrelated people, such as a boarding house, hostel, or backpacker accommodation. Therefore, the primary difference between Class 2 buildings and Class 4 buildings is the occupancy and purpose of the buildings.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JAS-ANZ is an accreditation body that accredits certification schemes in Australia and New Zealand.</t>
+          <t>JAS-ANZ is an accreditation body that accredits certification organizations in Australia and New Zealand.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,11 +526,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The other legislation affecting buildings can include various types of laws, regulations, codes, and standards that impact the design, construction, and performance of buildings. These may include:
-1. Planning and Land Management Acts: These acts govern the use and development of land, including regulations related to zoning, land use planning, and environmental considerations.
-2. Defence Regulations: These regulations pertain to buildings and infrastructure owned or operated by the Department of Defence. They may cover aspects such as fire protection, building works, and infrastructure engineering.
-3. Disability Discrimination Act: This act addresses accessibility requirements for buildings to ensure equal access for people with disabilities. It may include standards for accessible premises and accessible public transport.
-It's important to note that this is not an exhaustive list, and there may be additional legislation, regulations, codes, and standards that impact buildings depending on the jurisdiction and specific requirements.</t>
+          <t>The different types of other legislation affecting buildings include:
+1. Australian Capital Territory (Planning and Land Management) Act 1988: This legislation is administered by the Department of Infrastructure, Transport, Regional Development, Communications and the Arts. It pertains to the planning and land management in the Australian Capital Territory.
+2. Parliament Act 1974: This legislation is also administered by the Department of Infrastructure, Transport, Regional Development, Communications and the Arts. It relates to the functioning of the Parliament in the Australian Capital Territory.
+3. Defence Act 1903: This legislation is administered by the Department of Defence. It governs the construction and maintenance of buildings related to defense purposes.
+4. Defence Regulation 2016, Part 11A: This regulation, under the Defence Act 1903, provides specific guidelines and requirements for building works in defense-related structures.
+5. Disability Discrimination Act 1992: Administered by the Attorney-General's Department, this legislation aims to prevent discrimination against individuals with disabilities. It includes standards for accessibility in buildings.
+6. Disability (Access to Premises - Buildings) Standards 2010: These standards, under the Disability Discrimination Act 1992, provide specific requirements for making buildings accessible to people with disabilities.
+7. Disability Standards for Accessible Public Transport 2002: Also under the Disability Discrimination Act 1992, these standards focus on accessibility in public transportation systems.
+8. Water and Sewerage Act 2000: Administered by the Environment, Planning and Sustainable Development Directorate and the Chief Minister, Treasury and Economic Development Directorate, this legislation pertains to plumbing and drainage systems in buildings.
+9. Building Act 2004: Administered by the Environment, Planning and Sustainable Development Directorate and the Chief Minister, Treasury and Economic Development Directorate, this legislation governs various aspects of building construction, installation, repair, and maintenance.
+10. Health Act 1993: Administered by the ACT Health Directorate and Canberra Health Services, this legislation focuses on health-related requirements for buildings.
+11. Environment Protection Act 1997: Administered by the Environment, Planning and Sustainable Development Directorate, this legislation addresses environmental considerations in building design and construction.
+12. Gas: Administered by the Environment, Planning and Sustainable Development Directorate, this legislation pertains to gas-related requirements in buildings.
+These are some examples of the different types of legislation that can impact the design, construction, and performance of buildings. It is important for practitioners to be aware of these legislative requirements to ensure compliance and the safety of buildings.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -547,7 +556,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The topic of section G is "Ancillary provisions." This section provides additional requirements and provisions related to various aspects of building construction and design. It covers specific areas such as swimming pool access and water recirculation systems, cool rooms, vaults, outdoor play spaces in early childhood centers, accidental locking in small spaces, and swimming pool drainage. Each subsection within section G provides detailed requirements and guidelines for ensuring safety, communication, accessibility, and other important considerations in these specific areas of building construction.</t>
+          <t>The topic of section G is "Ancillary provisions." This section provides additional requirements and provisions related to various aspects of building construction and design. It covers topics such as swimming pool safety, cool rooms, vaults, outdoor play spaces in early childhood centers, accidental locking in small spaces, and swimming pool drainage. Each subsection within section G provides specific details and requirements for these different areas. For example, subsection G1P2 focuses on swimming pool access and water recirculation systems, specifying the need for barriers, strength and rigidity of the barrier, restriction of access for young children, and safety measures for the water recirculation system. Overall, section G of the Building Code of Australia Volume One contains ancillary provisions that complement the main building code requirements and address specific aspects of building design and safety.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -565,15 +574,8 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>Section A - Governing requirements
-Section B - Structure
-Section C - Fire resistance
-Section D - Access and egress
-Section E - Services and equipment
-Section F - Health and amenity
-Section G - Ancillary provisions
-Part G8 - Access for maintenance
-Part G9 - Miscellaneous provisions
-Section I - Special use buildings</t>
+Section B - Water services
+Section C - Sanitary plumbing and drainage systems</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
